--- a/codes/glcm/potato_test_Final.xlsx
+++ b/codes/glcm/potato_test_Final.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="335">
   <si>
     <t>contrast</t>
   </si>
@@ -49,7 +49,10 @@
     <t>852.364338235294</t>
   </si>
   <si>
-    <t>150.5123468137255</t>
+    <t>262.10019914215684</t>
+  </si>
+  <si>
+    <t>659.6558057598038</t>
   </si>
   <si>
     <t>640.1778952205882</t>
@@ -85,21 +88,39 @@
     <t>626.4800704656861</t>
   </si>
   <si>
+    <t>830.3831341911764</t>
+  </si>
+  <si>
+    <t>549.5311734068628</t>
+  </si>
+  <si>
     <t>292.91901041666665</t>
   </si>
   <si>
+    <t>560.595787377451</t>
+  </si>
+  <si>
+    <t>409.19151348039213</t>
+  </si>
+  <si>
     <t>223.11806066176467</t>
   </si>
   <si>
     <t>447.4530943627451</t>
   </si>
   <si>
+    <t>867.6036305147057</t>
+  </si>
+  <si>
     <t>475.8013480392156</t>
   </si>
   <si>
     <t>448.96266850490196</t>
   </si>
   <si>
+    <t>350.91171875</t>
+  </si>
+  <si>
     <t>384.5975949754901</t>
   </si>
   <si>
@@ -127,46 +148,19 @@
     <t>776.086213235294</t>
   </si>
   <si>
-    <t>846.5429840686273</t>
-  </si>
-  <si>
-    <t>330.49829963235294</t>
-  </si>
-  <si>
-    <t>680.7434589460784</t>
-  </si>
-  <si>
-    <t>504.656219362745</t>
-  </si>
-  <si>
-    <t>737.8825214460784</t>
-  </si>
-  <si>
-    <t>329.5165900735294</t>
-  </si>
-  <si>
-    <t>596.1641697303921</t>
-  </si>
-  <si>
-    <t>72.83998161764707</t>
-  </si>
-  <si>
-    <t>369.01087622549016</t>
-  </si>
-  <si>
-    <t>229.44895833333328</t>
-  </si>
-  <si>
-    <t>191.78250612745097</t>
-  </si>
-  <si>
-    <t>617.8353094362744</t>
+    <t>167.29013480392155</t>
+  </si>
+  <si>
+    <t>774.0554687499999</t>
   </si>
   <si>
     <t>21.66093749999999</t>
   </si>
   <si>
-    <t>8.202910539215683</t>
+    <t>9.855530024509797</t>
+  </si>
+  <si>
+    <t>16.730346200980378</t>
   </si>
   <si>
     <t>15.898268995098025</t>
@@ -202,21 +196,39 @@
     <t>16.869071691176458</t>
   </si>
   <si>
+    <t>19.870297181372536</t>
+  </si>
+  <si>
+    <t>14.545756740196069</t>
+  </si>
+  <si>
     <t>10.780223651960776</t>
   </si>
   <si>
+    <t>15.15476409313724</t>
+  </si>
+  <si>
+    <t>13.895802696078427</t>
+  </si>
+  <si>
     <t>9.3383731617647</t>
   </si>
   <si>
     <t>13.446231617647049</t>
   </si>
   <si>
+    <t>18.52869178921567</t>
+  </si>
+  <si>
     <t>14.002787990196069</t>
   </si>
   <si>
     <t>14.635768995098031</t>
   </si>
   <si>
+    <t>12.034267769607833</t>
+  </si>
+  <si>
     <t>12.62948835784313</t>
   </si>
   <si>
@@ -244,46 +256,19 @@
     <t>19.11614583333332</t>
   </si>
   <si>
-    <t>21.704197303921557</t>
-  </si>
-  <si>
-    <t>11.909849877450977</t>
-  </si>
-  <si>
-    <t>16.69391850490195</t>
-  </si>
-  <si>
-    <t>13.872426470588223</t>
-  </si>
-  <si>
-    <t>18.24459252450979</t>
-  </si>
-  <si>
-    <t>12.152527573529412</t>
-  </si>
-  <si>
-    <t>16.190854779411755</t>
-  </si>
-  <si>
-    <t>5.407965686274509</t>
-  </si>
-  <si>
-    <t>12.29865196078431</t>
-  </si>
-  <si>
-    <t>9.605453431372544</t>
-  </si>
-  <si>
-    <t>9.290808823529407</t>
-  </si>
-  <si>
-    <t>17.327466299019605</t>
+    <t>7.322028186274507</t>
+  </si>
+  <si>
+    <t>19.60859374999999</t>
   </si>
   <si>
     <t>0.05538775642091194</t>
   </si>
   <si>
-    <t>0.18501494037692398</t>
+    <t>0.18400462676504376</t>
+  </si>
+  <si>
+    <t>0.13386541046751727</t>
   </si>
   <si>
     <t>0.1481473284352594</t>
@@ -319,21 +304,39 @@
     <t>0.09000186377309297</t>
   </si>
   <si>
+    <t>0.08244548478280271</t>
+  </si>
+  <si>
+    <t>0.13353566650959164</t>
+  </si>
+  <si>
     <t>0.17525226442367797</t>
   </si>
   <si>
+    <t>0.12875368988518013</t>
+  </si>
+  <si>
+    <t>0.11592725929013085</t>
+  </si>
+  <si>
     <t>0.19022948330213407</t>
   </si>
   <si>
     <t>0.1559305962860586</t>
   </si>
   <si>
+    <t>0.12299033840915051</t>
+  </si>
+  <si>
     <t>0.14747091824479766</t>
   </si>
   <si>
     <t>0.10875388862616267</t>
   </si>
   <si>
+    <t>0.14480558633356694</t>
+  </si>
+  <si>
     <t>0.12796758465018654</t>
   </si>
   <si>
@@ -361,46 +364,19 @@
     <t>0.09403522858345809</t>
   </si>
   <si>
-    <t>0.0565991540916515</t>
-  </si>
-  <si>
-    <t>0.12787206120163486</t>
-  </si>
-  <si>
-    <t>0.12881432880025845</t>
-  </si>
-  <si>
-    <t>0.1828247740401429</t>
-  </si>
-  <si>
-    <t>0.10142512562686071</t>
-  </si>
-  <si>
-    <t>0.13105277408162372</t>
-  </si>
-  <si>
-    <t>0.12349995117529348</t>
-  </si>
-  <si>
-    <t>0.24872762428918307</t>
-  </si>
-  <si>
-    <t>0.14030868272510882</t>
-  </si>
-  <si>
-    <t>0.17705735876608172</t>
-  </si>
-  <si>
-    <t>0.1496616668858396</t>
-  </si>
-  <si>
-    <t>0.08364046048117996</t>
+    <t>0.2224106530428787</t>
+  </si>
+  <si>
+    <t>0.09931307552095166</t>
   </si>
   <si>
     <t>0.00010157789371876197</t>
   </si>
   <si>
-    <t>0.0006903270939962996</t>
+    <t>0.00036227333687764327</t>
+  </si>
+  <si>
+    <t>0.00023796483398812955</t>
   </si>
   <si>
     <t>0.0002545651762543253</t>
@@ -436,21 +412,39 @@
     <t>0.00013076964088331404</t>
   </si>
   <si>
+    <t>0.00013923806348519794</t>
+  </si>
+  <si>
+    <t>0.0002442499767216937</t>
+  </si>
+  <si>
     <t>0.00046346169442041513</t>
   </si>
   <si>
+    <t>0.00026069309655541134</t>
+  </si>
+  <si>
+    <t>0.00024091686115316227</t>
+  </si>
+  <si>
     <t>0.0003791350907703767</t>
   </si>
   <si>
     <t>0.0003418433377487026</t>
   </si>
   <si>
+    <t>0.00023712662722871013</t>
+  </si>
+  <si>
     <t>0.00027342529766195687</t>
   </si>
   <si>
     <t>0.00022286068609429064</t>
   </si>
   <si>
+    <t>0.00024464467542531715</t>
+  </si>
+  <si>
     <t>0.00025957142009683785</t>
   </si>
   <si>
@@ -478,46 +472,19 @@
     <t>0.0001660259500552673</t>
   </si>
   <si>
-    <t>8.845850303969623e-05</t>
-  </si>
-  <si>
-    <t>0.0002591729668276626</t>
-  </si>
-  <si>
-    <t>0.00021981620275254708</t>
-  </si>
-  <si>
-    <t>0.0006505272911860821</t>
-  </si>
-  <si>
-    <t>0.00014869909935481544</t>
-  </si>
-  <si>
-    <t>0.0002877968359525183</t>
-  </si>
-  <si>
-    <t>0.00019564571769271433</t>
-  </si>
-  <si>
-    <t>0.0007597461951232699</t>
-  </si>
-  <si>
-    <t>0.00026474192618223765</t>
-  </si>
-  <si>
-    <t>0.0004269011430399366</t>
-  </si>
-  <si>
-    <t>0.00028353962793757214</t>
-  </si>
-  <si>
-    <t>0.0001742240439374279</t>
+    <t>0.0003717212317678297</t>
+  </si>
+  <si>
+    <t>0.0002154172598880238</t>
   </si>
   <si>
     <t>0.010078585898763872</t>
   </si>
   <si>
-    <t>0.026274076463242237</t>
+    <t>0.01903347936867149</t>
+  </si>
+  <si>
+    <t>0.01542610884144571</t>
   </si>
   <si>
     <t>0.01595509875413892</t>
@@ -553,21 +520,39 @@
     <t>0.01143545542964136</t>
   </si>
   <si>
+    <t>0.011799917944002744</t>
+  </si>
+  <si>
+    <t>0.015628498863348765</t>
+  </si>
+  <si>
     <t>0.021528160497832023</t>
   </si>
   <si>
+    <t>0.016145993204365328</t>
+  </si>
+  <si>
+    <t>0.015521496743328662</t>
+  </si>
+  <si>
     <t>0.019471391598198027</t>
   </si>
   <si>
     <t>0.018489005861557363</t>
   </si>
   <si>
+    <t>0.015398916430343731</t>
+  </si>
+  <si>
     <t>0.016535576726015844</t>
   </si>
   <si>
     <t>0.014928519219744824</t>
   </si>
   <si>
+    <t>0.015641121296931276</t>
+  </si>
+  <si>
     <t>0.016111220316811444</t>
   </si>
   <si>
@@ -595,46 +580,19 @@
     <t>0.01288510574482287</t>
   </si>
   <si>
-    <t>0.009405238063956501</t>
-  </si>
-  <si>
-    <t>0.016098849860398803</t>
-  </si>
-  <si>
-    <t>0.014826199875644031</t>
-  </si>
-  <si>
-    <t>0.025505436502559254</t>
-  </si>
-  <si>
-    <t>0.012194224016099403</t>
-  </si>
-  <si>
-    <t>0.01696457591431387</t>
-  </si>
-  <si>
-    <t>0.013987341337534962</t>
-  </si>
-  <si>
-    <t>0.027563493884543554</t>
-  </si>
-  <si>
-    <t>0.01627089199098309</t>
-  </si>
-  <si>
-    <t>0.020661586169506363</t>
-  </si>
-  <si>
-    <t>0.01683863497845274</t>
-  </si>
-  <si>
-    <t>0.01319939558985289</t>
+    <t>0.019280073437822526</t>
+  </si>
+  <si>
+    <t>0.014677099845951305</t>
   </si>
   <si>
     <t>97.79818725585938</t>
   </si>
   <si>
-    <t>101.02412414550781</t>
+    <t>87.977294921875</t>
+  </si>
+  <si>
+    <t>81.22904968261719</t>
   </si>
   <si>
     <t>90.82365417480469</t>
@@ -670,21 +628,39 @@
     <t>81.95643615722656</t>
   </si>
   <si>
+    <t>96.82293701171875</t>
+  </si>
+  <si>
+    <t>93.87213134765625</t>
+  </si>
+  <si>
     <t>93.46055603027344</t>
   </si>
   <si>
+    <t>89.58401489257812</t>
+  </si>
+  <si>
+    <t>93.1824951171875</t>
+  </si>
+  <si>
     <t>91.05850219726562</t>
   </si>
   <si>
     <t>99.32136535644531</t>
   </si>
   <si>
+    <t>97.02694702148438</t>
+  </si>
+  <si>
     <t>88.25489807128906</t>
   </si>
   <si>
     <t>101.83552551269531</t>
   </si>
   <si>
+    <t>95.55128479003906</t>
+  </si>
+  <si>
     <t>83.36985778808594</t>
   </si>
   <si>
@@ -712,46 +688,19 @@
     <t>83.94142150878906</t>
   </si>
   <si>
-    <t>104.65473937988281</t>
-  </si>
-  <si>
-    <t>81.65464782714844</t>
-  </si>
-  <si>
-    <t>88.26069641113281</t>
-  </si>
-  <si>
-    <t>82.60551452636719</t>
-  </si>
-  <si>
-    <t>94.26161193847656</t>
-  </si>
-  <si>
-    <t>78.48377990722656</t>
-  </si>
-  <si>
-    <t>83.14572143554688</t>
-  </si>
-  <si>
-    <t>105.02915954589844</t>
-  </si>
-  <si>
-    <t>96.34782409667969</t>
-  </si>
-  <si>
-    <t>81.1888427734375</t>
-  </si>
-  <si>
-    <t>91.98394775390625</t>
-  </si>
-  <si>
-    <t>96.72352600097656</t>
+    <t>94.43577575683594</t>
+  </si>
+  <si>
+    <t>71.66230773925781</t>
   </si>
   <si>
     <t>74.07525634765625</t>
   </si>
   <si>
-    <t>58.11412048339844</t>
+    <t>59.8485107421875</t>
+  </si>
+  <si>
+    <t>77.06280517578125</t>
   </si>
   <si>
     <t>61.856964111328125</t>
@@ -787,21 +736,39 @@
     <t>56.99617004394531</t>
   </si>
   <si>
+    <t>51.81398010253906</t>
+  </si>
+  <si>
+    <t>55.47772216796875</t>
+  </si>
+  <si>
     <t>44.86785888671875</t>
   </si>
   <si>
+    <t>54.86567687988281</t>
+  </si>
+  <si>
+    <t>62.836334228515625</t>
+  </si>
+  <si>
     <t>65.35580444335938</t>
   </si>
   <si>
     <t>64.24217224121094</t>
   </si>
   <si>
+    <t>55.52067565917969</t>
+  </si>
+  <si>
     <t>79.32975769042969</t>
   </si>
   <si>
     <t>62.49224853515625</t>
   </si>
   <si>
+    <t>61.90093994140625</t>
+  </si>
+  <si>
     <t>67.38885498046875</t>
   </si>
   <si>
@@ -829,46 +796,19 @@
     <t>58.21778869628906</t>
   </si>
   <si>
-    <t>67.67402648925781</t>
-  </si>
-  <si>
-    <t>75.98712158203125</t>
-  </si>
-  <si>
-    <t>73.43087768554688</t>
-  </si>
-  <si>
-    <t>86.90196228027344</t>
-  </si>
-  <si>
-    <t>70.66032409667969</t>
-  </si>
-  <si>
-    <t>85.97819519042969</t>
-  </si>
-  <si>
-    <t>72.17808532714844</t>
-  </si>
-  <si>
-    <t>50.66175842285156</t>
-  </si>
-  <si>
-    <t>48.495819091796875</t>
-  </si>
-  <si>
-    <t>46.835174560546875</t>
-  </si>
-  <si>
-    <t>65.92369079589844</t>
-  </si>
-  <si>
-    <t>71.091064453125</t>
+    <t>62.212982177734375</t>
+  </si>
+  <si>
+    <t>80.00785827636719</t>
   </si>
   <si>
     <t>137.68553161621094</t>
   </si>
   <si>
-    <t>129.7050018310547</t>
+    <t>125.7698974609375</t>
+  </si>
+  <si>
+    <t>106.0435791015625</t>
   </si>
   <si>
     <t>145.3086395263672</t>
@@ -904,21 +844,39 @@
     <t>126.32806396484375</t>
   </si>
   <si>
+    <t>132.24615478515625</t>
+  </si>
+  <si>
+    <t>149.88601684570312</t>
+  </si>
+  <si>
     <t>131.3716583251953</t>
   </si>
   <si>
+    <t>145.54202270507812</t>
+  </si>
+  <si>
+    <t>112.06736755371094</t>
+  </si>
+  <si>
     <t>131.49237060546875</t>
   </si>
   <si>
     <t>135.48143005371094</t>
   </si>
   <si>
+    <t>151.13790893554688</t>
+  </si>
+  <si>
     <t>115.41867065429688</t>
   </si>
   <si>
     <t>126.31057739257812</t>
   </si>
   <si>
+    <t>107.40013122558594</t>
+  </si>
+  <si>
     <t>113.40623474121094</t>
   </si>
   <si>
@@ -946,46 +904,19 @@
     <t>133.84434509277344</t>
   </si>
   <si>
-    <t>143.619384765625</t>
-  </si>
-  <si>
-    <t>128.062744140625</t>
-  </si>
-  <si>
-    <t>130.30154418945312</t>
-  </si>
-  <si>
-    <t>105.12362670898438</t>
-  </si>
-  <si>
-    <t>119.47894287109375</t>
-  </si>
-  <si>
-    <t>120.18223571777344</t>
-  </si>
-  <si>
-    <t>115.75382995605469</t>
-  </si>
-  <si>
-    <t>122.47769165039062</t>
-  </si>
-  <si>
-    <t>127.23213195800781</t>
-  </si>
-  <si>
-    <t>139.7353973388672</t>
-  </si>
-  <si>
-    <t>115.37783813476562</t>
-  </si>
-  <si>
-    <t>138.97132873535156</t>
+    <t>125.43975830078125</t>
+  </si>
+  <si>
+    <t>122.09182739257812</t>
   </si>
   <si>
     <t>../../data/potato/test/test/00b1f292-23dd-44d4-aad3-c1ffb6a6ad5a___RS_LB 4479.JPG</t>
   </si>
   <si>
-    <t>../../data/potato/test/test/02c8ff21-4e0a-4326-ba8f-089e5cb45b74___RS_LB 4089.JPG</t>
+    <t>../../data/potato/test/test/01a8cc9f-074a-4866-87c8-bb5a9e3895b4___RS_LB 2968.JPG</t>
+  </si>
+  <si>
+    <t>../../data/potato/test/test/01ad74ce-eb28-42c7-9204-778d17cfd45c___RS_LB 2669.JPG</t>
   </si>
   <si>
     <t>../../data/potato/test/test/0acdc2b2-0dde-4073-8542-6fca275ab974___RS_LB 4857.JPG</t>
@@ -1021,21 +952,39 @@
     <t>../../data/potato/test/test/0f1fb568-1b12-45ef-ad99-c59fa9075693___RS_LB 3242.JPG</t>
   </si>
   <si>
+    <t>../../data/potato/test/test/0f243024-b1fa-4f96-ac7e-ecaf6dc5bc37___RS_LB 4925.JPG</t>
+  </si>
+  <si>
+    <t>../../data/potato/test/test/0f50da52-cb4a-4391-982a-d6cf9c9d9917___RS_LB 2581.JPG</t>
+  </si>
+  <si>
     <t>../../data/potato/test/test/0f6eac3b-d674-4c4d-ab3a-88689feec07f___RS_LB 5232.JPG</t>
   </si>
   <si>
+    <t>../../data/potato/test/test/0f824e18-3821-486c-81a1-f1f64cf6e767___RS_LB 4894.JPG</t>
+  </si>
+  <si>
+    <t>../../data/potato/test/test/0fe7786d-0e2f-4705-839d-898f1d9214b0___RS_LB 2836.JPG</t>
+  </si>
+  <si>
     <t>../../data/potato/test/test/1a146bf4-5696-4e19-842e-9e0e1ac7ac6d___RS_LB 5023.JPG</t>
   </si>
   <si>
     <t>../../data/potato/test/test/1a18d84a-8811-4806-830f-d10e98b1800e___RS_LB 3919.JPG</t>
   </si>
   <si>
+    <t>../../data/potato/test/test/1a5f4258-21df-4334-a933-2ef073c932ba___RS_LB 3089.JPG</t>
+  </si>
+  <si>
     <t>../../data/potato/test/test/1a674846-9d13-4a7f-ba03-8931c5dd3d2c___RS_LB 2768.JPG</t>
   </si>
   <si>
     <t>../../data/potato/test/test/1a68ab56-2000-4d7a-ad4a-88d300104b7d___RS_LB 2594.JPG</t>
   </si>
   <si>
+    <t>../../data/potato/test/test/1a6fc494-81dd-4649-ad8d-a5a6e58a2aa7___RS_LB 2618.JPG</t>
+  </si>
+  <si>
     <t>../../data/potato/test/test/1ab62af3-c0a5-4fab-bb62-e06d6f7ddb59___RS_LB 2908.JPG</t>
   </si>
   <si>
@@ -1063,40 +1012,10 @@
     <t>../../data/potato/test/test/1cd0b065-e637-4307-9e0a-9c20dc44cc59___RS_LB 4784.JPG</t>
   </si>
   <si>
-    <t>../../data/potato/test/test/1e0326a5-b208-447f-9d60-f788ec4b6e3f___RS_LB 4526.JPG</t>
-  </si>
-  <si>
-    <t>../../data/potato/test/test/1ed357f9-f036-4bf2-b180-1588976eb116___RS_LB 3005.JPG</t>
-  </si>
-  <si>
-    <t>../../data/potato/test/test/1f440bb7-e35d-4bc9-a807-81dac78c54b8___RS_LB 2727.JPG</t>
-  </si>
-  <si>
-    <t>../../data/potato/test/test/1f560f09-0b70-40c9-b907-4cac9ba47b8d___RS_LB 3184.JPG</t>
-  </si>
-  <si>
-    <t>../../data/potato/test/test/1f84da28-3025-4cc0-8815-5b6b60205956___RS_LB 3326.JPG</t>
-  </si>
-  <si>
-    <t>../../data/potato/test/test/1fa9afe6-69ab-4206-a8b5-487531391a37___RS_LB 3006.JPG</t>
-  </si>
-  <si>
-    <t>../../data/potato/test/test/2a0727c6-24d9-4d20-89ed-51bbd36a4b5a___RS_LB 2987.JPG</t>
-  </si>
-  <si>
-    <t>../../data/potato/test/test/2a3e5c22-1e37-4ba0-8686-cf7482e4e8d3___RS_LB 4126.JPG</t>
-  </si>
-  <si>
-    <t>../../data/potato/test/test/2a52ba17-febc-49b9-b5ab-52a500d387de___RS_LB 2621.JPG</t>
-  </si>
-  <si>
-    <t>../../data/potato/test/test/2addf5f2-acc5-448c-88a1-fe357d9aa9ac___RS_LB 4736.JPG</t>
-  </si>
-  <si>
-    <t>../../data/potato/test/test/2af683b8-ad55-450d-9047-630b85a2d128___RS_LB 4614.JPG</t>
-  </si>
-  <si>
-    <t>../../data/potato/test/test/2b7f92a9-9bd8-4461-9588-ab98abf54be0___RS_LB 2575.JPG</t>
+    <t>../../data/potato/test/test/1cffe6a1-6fb3-4506-846c-478148a2b678___RS_LB 4380.JPG</t>
+  </si>
+  <si>
+    <t>../../data/potato/test/test/1d4acd15-f2b9-4a2e-87da-9d5a2cc6a642___RS_LB 2752.JPG</t>
   </si>
   <si>
     <t>0</t>
@@ -1457,7 +1376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1503,31 +1422,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="G2" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="H2" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="I2" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="J2" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="K2" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1538,31 +1457,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F3" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="G3" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="H3" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="I3" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="J3" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="K3" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1573,31 +1492,31 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E4" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F4" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="G4" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="H4" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="I4" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="J4" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="K4" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1608,31 +1527,31 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E5" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F5" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="G5" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="H5" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="I5" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="J5" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="K5" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1643,31 +1562,31 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E6" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="F6" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G6" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="H6" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="I6" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="J6" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="K6" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1678,31 +1597,31 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F7" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="G7" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="H7" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="I7" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="J7" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="K7" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1713,31 +1632,31 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E8" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F8" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="G8" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="H8" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="I8" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="J8" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="K8" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1748,31 +1667,31 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E9" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="G9" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="H9" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="I9" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="J9" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="K9" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1783,31 +1702,31 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E10" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F10" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="G10" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="H10" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="I10" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="J10" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="K10" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1818,31 +1737,31 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E11" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F11" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="G11" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="H11" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="I11" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="J11" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="K11" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1853,31 +1772,31 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E12" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F12" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="G12" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="H12" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="I12" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="J12" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="K12" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1888,31 +1807,31 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E13" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F13" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="G13" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="H13" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="I13" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="J13" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="K13" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1923,31 +1842,31 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E14" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="F14" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="G14" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="H14" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="I14" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="J14" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="K14" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1958,31 +1877,31 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E15" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="F15" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="G15" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="H15" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="I15" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="J15" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="K15" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1993,31 +1912,31 @@
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E16" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="F16" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="G16" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="H16" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="I16" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="J16" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="K16" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2028,31 +1947,31 @@
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="F17" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="G17" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="H17" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="I17" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="J17" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="K17" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2063,31 +1982,31 @@
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E18" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="F18" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="G18" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="H18" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="I18" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="J18" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="K18" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2098,31 +2017,31 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E19" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F19" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="G19" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="H19" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="I19" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="J19" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="K19" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2133,31 +2052,31 @@
         <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D20" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="F20" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="G20" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="H20" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="I20" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="J20" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="K20" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2168,31 +2087,31 @@
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E21" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="F21" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="G21" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="H21" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="I21" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="J21" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="K21" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2203,31 +2122,31 @@
         <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E22" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="F22" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="G22" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="H22" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="I22" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="J22" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="K22" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2238,31 +2157,31 @@
         <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D23" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E23" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="F23" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="G23" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="H23" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="I23" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="J23" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="K23" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2273,31 +2192,31 @@
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E24" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F24" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="G24" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="H24" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="I24" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="J24" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="K24" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2308,31 +2227,31 @@
         <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D25" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E25" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F25" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G25" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="H25" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="I25" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="J25" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="K25" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2343,31 +2262,31 @@
         <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D26" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E26" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="F26" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="G26" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="H26" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="I26" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="J26" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="K26" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2378,31 +2297,31 @@
         <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D27" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E27" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="F27" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="G27" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="H27" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="I27" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="J27" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="K27" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2413,31 +2332,31 @@
         <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D28" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E28" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="F28" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="G28" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="H28" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="I28" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="J28" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="K28" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2448,31 +2367,31 @@
         <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D29" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E29" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F29" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="G29" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="H29" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="I29" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="J29" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="K29" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2483,31 +2402,31 @@
         <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D30" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E30" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="F30" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="G30" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="H30" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="I30" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="J30" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="K30" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2518,31 +2437,31 @@
         <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D31" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E31" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="F31" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="G31" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="H31" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="I31" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="J31" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
       <c r="K31" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2553,31 +2472,31 @@
         <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D32" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E32" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F32" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="G32" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="H32" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="I32" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="J32" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="K32" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2588,31 +2507,31 @@
         <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D33" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E33" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="F33" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="G33" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="H33" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="I33" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="J33" t="s">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="K33" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2623,31 +2542,31 @@
         <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D34" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E34" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="F34" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="G34" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="H34" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="I34" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="J34" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="K34" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2658,31 +2577,31 @@
         <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D35" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E35" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="F35" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="G35" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="H35" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="I35" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="J35" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="K35" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2693,31 +2612,31 @@
         <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D36" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E36" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="F36" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="G36" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="H36" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="I36" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="J36" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="K36" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2728,136 +2647,31 @@
         <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D37" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E37" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F37" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="G37" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="H37" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="I37" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="J37" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="K37" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" t="s">
-        <v>124</v>
-      </c>
-      <c r="E38" t="s">
-        <v>163</v>
-      </c>
-      <c r="F38" t="s">
-        <v>202</v>
-      </c>
-      <c r="G38" t="s">
-        <v>241</v>
-      </c>
-      <c r="H38" t="s">
-        <v>280</v>
-      </c>
-      <c r="I38" t="s">
-        <v>319</v>
-      </c>
-      <c r="J38" t="s">
-        <v>358</v>
-      </c>
-      <c r="K38" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" t="s">
-        <v>86</v>
-      </c>
-      <c r="D39" t="s">
-        <v>125</v>
-      </c>
-      <c r="E39" t="s">
-        <v>164</v>
-      </c>
-      <c r="F39" t="s">
-        <v>203</v>
-      </c>
-      <c r="G39" t="s">
-        <v>242</v>
-      </c>
-      <c r="H39" t="s">
-        <v>281</v>
-      </c>
-      <c r="I39" t="s">
-        <v>320</v>
-      </c>
-      <c r="J39" t="s">
-        <v>359</v>
-      </c>
-      <c r="K39" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" t="s">
-        <v>87</v>
-      </c>
-      <c r="D40" t="s">
-        <v>126</v>
-      </c>
-      <c r="E40" t="s">
-        <v>165</v>
-      </c>
-      <c r="F40" t="s">
-        <v>204</v>
-      </c>
-      <c r="G40" t="s">
-        <v>243</v>
-      </c>
-      <c r="H40" t="s">
-        <v>282</v>
-      </c>
-      <c r="I40" t="s">
-        <v>321</v>
-      </c>
-      <c r="J40" t="s">
-        <v>360</v>
-      </c>
-      <c r="K40" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
